--- a/openpyxl/sample/files/charts_gen.xlsx
+++ b/openpyxl/sample/files/charts_gen.xlsx
@@ -13,6 +13,7 @@
     <sheet name="Dates" r:id="rId4" sheetId="4"/>
     <sheet name="Pie" r:id="rId5" sheetId="5"/>
     <sheet name="Line" r:id="rId6" sheetId="6"/>
+    <sheet name="Scatter" r:id="rId7" sheetId="7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="1"/>
@@ -905,6 +906,157 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-GB"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.03375"/>
+          <c:y val="0.31"/>
+          <c:w val="0.6"/>
+          <c:h val="0.6"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Scatter'!$B$1:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>81</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Scatter'!$A$1:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="60871424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="90.0"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="60873344"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="10.0"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="60873344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10.0"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="60871424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2.0"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" footer="0.3" header="0.3" l="0.7" r="0.7" t="0.75"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <xdr:absoluteAnchor>
@@ -1031,6 +1183,31 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="95250" y="3810000"/>
+    <xdr:ext cx="7620000" cy="3810000"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="0" name="Graphique 0"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <xdr:absoluteAnchor>
     <xdr:pos x="95250" y="3810000"/>
@@ -1787,4 +1964,106 @@
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryRight="1" summaryBelow="1"/>
+  </sheetPr>
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1" activeCell="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col max="1" collapsed="0" width="9.10" min="1"/>
+    <col max="2" collapsed="0" width="9.10" min="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/openpyxl/sample/files/charts_gen.xlsx
+++ b/openpyxl/sample/files/charts_gen.xlsx
@@ -929,10 +929,10 @@
           <c:order val="0"/>
           <c:xVal>
             <c:numRef>
-              <c:f>'Scatter'!$B$1:$B$10</c:f>
+              <c:f>'Scatter'!$B$1:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -940,38 +940,41 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>81</c:v>
+                <c:pt idx="10">
+                  <c:v>None</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Scatter'!$A$1:$A$10</c:f>
+              <c:f>'Scatter'!$A$1:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1001,17 +1004,22 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>None</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
+        <c:axId val="60871424"/>
+        <c:axId val="60873344"/>
       </c:scatterChart>
       <c:valAx>
         <c:axId val="60871424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="90.0"/>
+          <c:max val="10.0"/>
           <c:min val="0.0"/>
         </c:scaling>
         <c:axPos val="b"/>
@@ -1024,7 +1032,7 @@
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="10.0"/>
+        <c:majorUnit val="2.0"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="60873344"/>
@@ -1971,7 +1979,7 @@
   <sheetPr>
     <outlinePr summaryRight="1" summaryBelow="1"/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1" activeCell="A1"/>
@@ -2004,7 +2012,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2012,7 +2020,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2020,7 +2028,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2028,7 +2036,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2036,7 +2044,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2044,7 +2052,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>49</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2052,7 +2060,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>64</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2060,7 +2068,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>81</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/openpyxl/sample/files/charts_gen.xlsx
+++ b/openpyxl/sample/files/charts_gen.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Numbers" r:id="rId1" sheetId="1"/>
-    <sheet name="Negative" r:id="rId2" sheetId="2"/>
-    <sheet name="Letters" r:id="rId3" sheetId="3"/>
-    <sheet name="Dates" r:id="rId4" sheetId="4"/>
-    <sheet name="Pie" r:id="rId5" sheetId="5"/>
-    <sheet name="Line" r:id="rId6" sheetId="6"/>
-    <sheet name="Scatter" r:id="rId7" sheetId="7"/>
-  </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="1"/>
-</workbook>
+<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+  <s:fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <s:workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <s:bookViews>
+    <s:workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+  </s:bookViews>
+  <s:sheets>
+    <s:sheet name="Numbers" sheetId="1" r:id="rId1"/>
+    <s:sheet name="Negative" sheetId="2" r:id="rId2"/>
+    <s:sheet name="Letters" sheetId="3" r:id="rId3"/>
+    <s:sheet name="Dates" sheetId="4" r:id="rId4"/>
+    <s:sheet name="Pie" sheetId="5" r:id="rId5"/>
+    <s:sheet name="Line" sheetId="6" r:id="rId6"/>
+    <s:sheet name="Scatter" sheetId="7" r:id="rId7"/>
+  </s:sheets>
+  <s:definedNames/>
+  <s:calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="1"/>
+</s:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -102,7 +102,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <c:lang val="en-GB"/>
   <c:chart>
     <c:plotArea>
@@ -211,7 +211,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <c:lang val="en-GB"/>
   <c:chart>
     <c:plotArea>
@@ -320,7 +320,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <c:lang val="en-GB"/>
   <c:chart>
     <c:plotArea>
@@ -550,7 +550,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <c:lang val="en-GB"/>
   <c:chart>
     <c:plotArea>
@@ -698,7 +698,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <c:lang val="en-GB"/>
   <c:chart>
     <c:plotArea>
@@ -814,7 +814,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <c:lang val="en-GB"/>
   <c:chart>
     <c:plotArea>
@@ -907,7 +907,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <c:lang val="en-GB"/>
   <c:chart>
     <c:plotArea>
@@ -1241,286 +1241,286 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<ns0:theme xmlns:ns0="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <ns0:themeElements>
-    <ns0:clrScheme name="Office">
-      <ns0:dk1>
-        <ns0:sysClr lastClr="000000" val="windowText"/>
-      </ns0:dk1>
-      <ns0:lt1>
-        <ns0:sysClr lastClr="FFFFFF" val="window"/>
-      </ns0:lt1>
-      <ns0:dk2>
-        <ns0:srgbClr val="1F497D"/>
-      </ns0:dk2>
-      <ns0:lt2>
-        <ns0:srgbClr val="EEECE1"/>
-      </ns0:lt2>
-      <ns0:accent1>
-        <ns0:srgbClr val="4F81BD"/>
-      </ns0:accent1>
-      <ns0:accent2>
-        <ns0:srgbClr val="C0504D"/>
-      </ns0:accent2>
-      <ns0:accent3>
-        <ns0:srgbClr val="9BBB59"/>
-      </ns0:accent3>
-      <ns0:accent4>
-        <ns0:srgbClr val="8064A2"/>
-      </ns0:accent4>
-      <ns0:accent5>
-        <ns0:srgbClr val="4BACC6"/>
-      </ns0:accent5>
-      <ns0:accent6>
-        <ns0:srgbClr val="F79646"/>
-      </ns0:accent6>
-      <ns0:hlink>
-        <ns0:srgbClr val="0000FF"/>
-      </ns0:hlink>
-      <ns0:folHlink>
-        <ns0:srgbClr val="800080"/>
-      </ns0:folHlink>
-    </ns0:clrScheme>
-    <ns0:fontScheme name="Office">
-      <ns0:majorFont>
-        <ns0:latin typeface="Cambria"/>
-        <ns0:ea typeface=""/>
-        <ns0:cs typeface=""/>
-        <ns0:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <ns0:font script="Hang" typeface="맑은 고딕"/>
-        <ns0:font script="Hans" typeface="宋体"/>
-        <ns0:font script="Hant" typeface="新細明體"/>
-        <ns0:font script="Arab" typeface="Times New Roman"/>
-        <ns0:font script="Hebr" typeface="Times New Roman"/>
-        <ns0:font script="Thai" typeface="Tahoma"/>
-        <ns0:font script="Ethi" typeface="Nyala"/>
-        <ns0:font script="Beng" typeface="Vrinda"/>
-        <ns0:font script="Gujr" typeface="Shruti"/>
-        <ns0:font script="Khmr" typeface="MoolBoran"/>
-        <ns0:font script="Knda" typeface="Tunga"/>
-        <ns0:font script="Guru" typeface="Raavi"/>
-        <ns0:font script="Cans" typeface="Euphemia"/>
-        <ns0:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <ns0:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <ns0:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <ns0:font script="Thaa" typeface="MV Boli"/>
-        <ns0:font script="Deva" typeface="Mangal"/>
-        <ns0:font script="Telu" typeface="Gautami"/>
-        <ns0:font script="Taml" typeface="Latha"/>
-        <ns0:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <ns0:font script="Orya" typeface="Kalinga"/>
-        <ns0:font script="Mlym" typeface="Kartika"/>
-        <ns0:font script="Laoo" typeface="DokChampa"/>
-        <ns0:font script="Sinh" typeface="Iskoola Pota"/>
-        <ns0:font script="Mong" typeface="Mongolian Baiti"/>
-        <ns0:font script="Viet" typeface="Times New Roman"/>
-        <ns0:font script="Uigh" typeface="Microsoft Uighur"/>
-      </ns0:majorFont>
-      <ns0:minorFont>
-        <ns0:latin typeface="Calibri"/>
-        <ns0:ea typeface=""/>
-        <ns0:cs typeface=""/>
-        <ns0:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <ns0:font script="Hang" typeface="맑은 고딕"/>
-        <ns0:font script="Hans" typeface="宋体"/>
-        <ns0:font script="Hant" typeface="新細明體"/>
-        <ns0:font script="Arab" typeface="Arial"/>
-        <ns0:font script="Hebr" typeface="Arial"/>
-        <ns0:font script="Thai" typeface="Tahoma"/>
-        <ns0:font script="Ethi" typeface="Nyala"/>
-        <ns0:font script="Beng" typeface="Vrinda"/>
-        <ns0:font script="Gujr" typeface="Shruti"/>
-        <ns0:font script="Khmr" typeface="DaunPenh"/>
-        <ns0:font script="Knda" typeface="Tunga"/>
-        <ns0:font script="Guru" typeface="Raavi"/>
-        <ns0:font script="Cans" typeface="Euphemia"/>
-        <ns0:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <ns0:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <ns0:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <ns0:font script="Thaa" typeface="MV Boli"/>
-        <ns0:font script="Deva" typeface="Mangal"/>
-        <ns0:font script="Telu" typeface="Gautami"/>
-        <ns0:font script="Taml" typeface="Latha"/>
-        <ns0:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <ns0:font script="Orya" typeface="Kalinga"/>
-        <ns0:font script="Mlym" typeface="Kartika"/>
-        <ns0:font script="Laoo" typeface="DokChampa"/>
-        <ns0:font script="Sinh" typeface="Iskoola Pota"/>
-        <ns0:font script="Mong" typeface="Mongolian Baiti"/>
-        <ns0:font script="Viet" typeface="Arial"/>
-        <ns0:font script="Uigh" typeface="Microsoft Uighur"/>
-      </ns0:minorFont>
-    </ns0:fontScheme>
-    <ns0:fmtScheme name="Office">
-      <ns0:fillStyleLst>
-        <ns0:solidFill>
-          <ns0:schemeClr val="phClr"/>
-        </ns0:solidFill>
-        <ns0:gradFill rotWithShape="1">
-          <ns0:gsLst>
-            <ns0:gs pos="0">
-              <ns0:schemeClr val="phClr">
-                <ns0:tint val="50000"/>
-                <ns0:satMod val="300000"/>
-              </ns0:schemeClr>
-            </ns0:gs>
-            <ns0:gs pos="35000">
-              <ns0:schemeClr val="phClr">
-                <ns0:tint val="37000"/>
-                <ns0:satMod val="300000"/>
-              </ns0:schemeClr>
-            </ns0:gs>
-            <ns0:gs pos="100000">
-              <ns0:schemeClr val="phClr">
-                <ns0:tint val="15000"/>
-                <ns0:satMod val="350000"/>
-              </ns0:schemeClr>
-            </ns0:gs>
-          </ns0:gsLst>
-          <ns0:lin ang="16200000" scaled="1"/>
-        </ns0:gradFill>
-        <ns0:gradFill rotWithShape="1">
-          <ns0:gsLst>
-            <ns0:gs pos="0">
-              <ns0:schemeClr val="phClr">
-                <ns0:shade val="51000"/>
-                <ns0:satMod val="130000"/>
-              </ns0:schemeClr>
-            </ns0:gs>
-            <ns0:gs pos="80000">
-              <ns0:schemeClr val="phClr">
-                <ns0:shade val="93000"/>
-                <ns0:satMod val="130000"/>
-              </ns0:schemeClr>
-            </ns0:gs>
-            <ns0:gs pos="100000">
-              <ns0:schemeClr val="phClr">
-                <ns0:shade val="94000"/>
-                <ns0:satMod val="135000"/>
-              </ns0:schemeClr>
-            </ns0:gs>
-          </ns0:gsLst>
-          <ns0:lin ang="16200000" scaled="0"/>
-        </ns0:gradFill>
-      </ns0:fillStyleLst>
-      <ns0:lnStyleLst>
-        <ns0:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
-          <ns0:solidFill>
-            <ns0:schemeClr val="phClr">
-              <ns0:shade val="95000"/>
-              <ns0:satMod val="105000"/>
-            </ns0:schemeClr>
-          </ns0:solidFill>
-          <ns0:prstDash val="solid"/>
-        </ns0:ln>
-        <ns0:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
-          <ns0:solidFill>
-            <ns0:schemeClr val="phClr"/>
-          </ns0:solidFill>
-          <ns0:prstDash val="solid"/>
-        </ns0:ln>
-        <ns0:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
-          <ns0:solidFill>
-            <ns0:schemeClr val="phClr"/>
-          </ns0:solidFill>
-          <ns0:prstDash val="solid"/>
-        </ns0:ln>
-      </ns0:lnStyleLst>
-      <ns0:effectStyleLst>
-        <ns0:effectStyle>
-          <ns0:effectLst>
-            <ns0:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
-              <ns0:srgbClr val="000000">
-                <ns0:alpha val="38000"/>
-              </ns0:srgbClr>
-            </ns0:outerShdw>
-          </ns0:effectLst>
-        </ns0:effectStyle>
-        <ns0:effectStyle>
-          <ns0:effectLst>
-            <ns0:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
-              <ns0:srgbClr val="000000">
-                <ns0:alpha val="35000"/>
-              </ns0:srgbClr>
-            </ns0:outerShdw>
-          </ns0:effectLst>
-        </ns0:effectStyle>
-        <ns0:effectStyle>
-          <ns0:effectLst>
-            <ns0:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
-              <ns0:srgbClr val="000000">
-                <ns0:alpha val="35000"/>
-              </ns0:srgbClr>
-            </ns0:outerShdw>
-          </ns0:effectLst>
-          <ns0:scene3d>
-            <ns0:camera prst="orthographicFront">
-              <ns0:rot lat="0" lon="0" rev="0"/>
-            </ns0:camera>
-            <ns0:lightRig dir="t" rig="threePt">
-              <ns0:rot lat="0" lon="0" rev="1200000"/>
-            </ns0:lightRig>
-          </ns0:scene3d>
-          <ns0:sp3d>
-            <ns0:bevelT h="25400" w="63500"/>
-          </ns0:sp3d>
-        </ns0:effectStyle>
-      </ns0:effectStyleLst>
-      <ns0:bgFillStyleLst>
-        <ns0:solidFill>
-          <ns0:schemeClr val="phClr"/>
-        </ns0:solidFill>
-        <ns0:gradFill rotWithShape="1">
-          <ns0:gsLst>
-            <ns0:gs pos="0">
-              <ns0:schemeClr val="phClr">
-                <ns0:tint val="40000"/>
-                <ns0:satMod val="350000"/>
-              </ns0:schemeClr>
-            </ns0:gs>
-            <ns0:gs pos="40000">
-              <ns0:schemeClr val="phClr">
-                <ns0:tint val="45000"/>
-                <ns0:shade val="99000"/>
-                <ns0:satMod val="350000"/>
-              </ns0:schemeClr>
-            </ns0:gs>
-            <ns0:gs pos="100000">
-              <ns0:schemeClr val="phClr">
-                <ns0:shade val="20000"/>
-                <ns0:satMod val="255000"/>
-              </ns0:schemeClr>
-            </ns0:gs>
-          </ns0:gsLst>
-          <ns0:path path="circle">
-            <ns0:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
-          </ns0:path>
-        </ns0:gradFill>
-        <ns0:gradFill rotWithShape="1">
-          <ns0:gsLst>
-            <ns0:gs pos="0">
-              <ns0:schemeClr val="phClr">
-                <ns0:tint val="80000"/>
-                <ns0:satMod val="300000"/>
-              </ns0:schemeClr>
-            </ns0:gs>
-            <ns0:gs pos="100000">
-              <ns0:schemeClr val="phClr">
-                <ns0:shade val="30000"/>
-                <ns0:satMod val="200000"/>
-              </ns0:schemeClr>
-            </ns0:gs>
-          </ns0:gsLst>
-          <ns0:path path="circle">
-            <ns0:fillToRect b="50000" l="50000" r="50000" t="50000"/>
-          </ns0:path>
-        </ns0:gradFill>
-      </ns0:bgFillStyleLst>
-    </ns0:fmtScheme>
-  </ns0:themeElements>
-  <ns0:objectDefaults/>
-  <ns0:extraClrSchemeLst/>
-</ns0:theme>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr lastClr="000000" val="windowText"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT h="25400" w="63500"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
